--- a/xlsx/古希臘_intext.xlsx
+++ b/xlsx/古希臘_intext.xlsx
@@ -29,7 +29,7 @@
     <t>雅典卫城</t>
   </si>
   <si>
-    <t>政策_政策_外交政策_古希臘</t>
+    <t>体育运动_体育运动_足球_古希臘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%E5%86%9C%E7%A5%9E%E5%BA%99</t>
